--- a/data_year/zb/资源和环境/城市生活垃圾清运和处理情况.xlsx
+++ b/data_year/zb/资源和环境/城市生活垃圾清运和处理情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,863 +518,578 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="C2" t="n">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="D2" t="n">
-        <v>205889</v>
+        <v>289957</v>
       </c>
       <c r="E2" t="n">
-        <v>6888.9</v>
+        <v>9598.299999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>15347</v>
+        <v>5480</v>
       </c>
       <c r="H2" t="n">
-        <v>730.01</v>
+        <v>180.8</v>
       </c>
       <c r="I2" t="n">
-        <v>52.1191156273978</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>238519</v>
+        <v>387607</v>
       </c>
       <c r="K2" t="n">
-        <v>8088.71</v>
+        <v>12317.8</v>
       </c>
       <c r="L2" t="n">
-        <v>15509.3</v>
+        <v>15804.8</v>
       </c>
       <c r="M2" t="n">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="N2" t="n">
-        <v>16907</v>
+        <v>84940</v>
       </c>
       <c r="O2" t="n">
-        <v>449</v>
+        <v>2316.7</v>
       </c>
       <c r="P2" t="n">
-        <v>2557.77</v>
+        <v>690.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>3576.3</v>
+        <v>1950.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471</v>
+        <v>677</v>
       </c>
       <c r="C3" t="n">
-        <v>356</v>
+        <v>547</v>
       </c>
       <c r="D3" t="n">
-        <v>211085</v>
+        <v>300195</v>
       </c>
       <c r="E3" t="n">
-        <v>6857.11</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11767</v>
-      </c>
+        <v>10063.74</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>345.43</v>
+        <v>2599.28</v>
       </c>
       <c r="I3" t="n">
-        <v>51.686482461096</v>
+        <v>79.7</v>
       </c>
       <c r="J3" t="n">
-        <v>256312</v>
+        <v>409119</v>
       </c>
       <c r="K3" t="n">
-        <v>8051.1</v>
+        <v>13089.64</v>
       </c>
       <c r="L3" t="n">
-        <v>15576.8</v>
+        <v>16395.28</v>
       </c>
       <c r="M3" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="N3" t="n">
-        <v>33010</v>
+        <v>94114</v>
       </c>
       <c r="O3" t="n">
-        <v>791.04</v>
+        <v>2599.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2713.79</v>
+        <v>652.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>3804.6</v>
+        <v>1962.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419</v>
+        <v>701</v>
       </c>
       <c r="C4" t="n">
-        <v>324</v>
+        <v>540</v>
       </c>
       <c r="D4" t="n">
-        <v>206626</v>
+        <v>310927</v>
       </c>
       <c r="E4" t="n">
-        <v>6408.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9506</v>
-      </c>
-      <c r="H4" t="n">
-        <v>288.2</v>
-      </c>
+        <v>10512.49</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>52.15</v>
+        <v>84.83</v>
       </c>
       <c r="J4" t="n">
-        <v>258048</v>
+        <v>446268</v>
       </c>
       <c r="K4" t="n">
-        <v>7872.6</v>
+        <v>14489.54</v>
       </c>
       <c r="L4" t="n">
-        <v>14841.3</v>
+        <v>17080.87</v>
       </c>
       <c r="M4" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="N4" t="n">
-        <v>39966</v>
+        <v>122649</v>
       </c>
       <c r="O4" t="n">
-        <v>1137.6</v>
+        <v>3584.06</v>
       </c>
       <c r="P4" t="n">
-        <v>855.2</v>
+        <v>801.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2130.5</v>
+        <v>1811.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460</v>
+        <v>765</v>
       </c>
       <c r="C5" t="n">
-        <v>366</v>
+        <v>580</v>
       </c>
       <c r="D5" t="n">
-        <v>215179</v>
+        <v>322782</v>
       </c>
       <c r="E5" t="n">
-        <v>7632.68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7890</v>
-      </c>
-      <c r="H5" t="n">
-        <v>249.97</v>
-      </c>
+        <v>10492.69</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>62.03</v>
+        <v>89.3</v>
       </c>
       <c r="J5" t="n">
-        <v>271791</v>
+        <v>492300</v>
       </c>
       <c r="K5" t="n">
-        <v>9437.690000000001</v>
+        <v>15393.98</v>
       </c>
       <c r="L5" t="n">
-        <v>15214.53</v>
+        <v>17238.58</v>
       </c>
       <c r="M5" t="n">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="N5" t="n">
-        <v>44682</v>
+        <v>158488</v>
       </c>
       <c r="O5" t="n">
-        <v>1435.05</v>
+        <v>4633.72</v>
       </c>
       <c r="P5" t="n">
-        <v>908.3200000000001</v>
+        <v>677.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>2506.29</v>
+        <v>1682.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509</v>
+        <v>818</v>
       </c>
       <c r="C6" t="n">
-        <v>407</v>
+        <v>604</v>
       </c>
       <c r="D6" t="n">
-        <v>253268</v>
+        <v>335316</v>
       </c>
       <c r="E6" t="n">
-        <v>8424.01</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5386</v>
-      </c>
-      <c r="H6" t="n">
-        <v>174.01</v>
-      </c>
+        <v>10744.25</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>66.76000000000001</v>
+        <v>91.79000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>315153</v>
+        <v>533455</v>
       </c>
       <c r="K6" t="n">
-        <v>10306.6</v>
+        <v>16393.74</v>
       </c>
       <c r="L6" t="n">
-        <v>15437.7</v>
+        <v>17860.18</v>
       </c>
       <c r="M6" t="n">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="N6" t="n">
-        <v>51606</v>
+        <v>185957</v>
       </c>
       <c r="O6" t="n">
-        <v>1569.74</v>
+        <v>5329.88</v>
       </c>
       <c r="P6" t="n">
-        <v>903.91</v>
+        <v>691.97</v>
       </c>
       <c r="Q6" t="n">
-        <v>2330.71</v>
+        <v>1551.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>567</v>
+        <v>890</v>
       </c>
       <c r="C7" t="n">
-        <v>447</v>
+        <v>640</v>
       </c>
       <c r="D7" t="n">
-        <v>273498</v>
+        <v>344135</v>
       </c>
       <c r="E7" t="n">
-        <v>8898.610000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6979</v>
-      </c>
-      <c r="H7" t="n">
-        <v>178.83</v>
-      </c>
+        <v>11483.14</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>71.39</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>356130</v>
+        <v>576894</v>
       </c>
       <c r="K7" t="n">
-        <v>11232.29</v>
+        <v>18013.01</v>
       </c>
       <c r="L7" t="n">
-        <v>15733.68</v>
+        <v>19141.87</v>
       </c>
       <c r="M7" t="n">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>71253</v>
+        <v>219080</v>
       </c>
       <c r="O7" t="n">
-        <v>2021.96</v>
+        <v>6175.52</v>
       </c>
       <c r="P7" t="n">
-        <v>846.13</v>
+        <v>673.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>2140.96</v>
+        <v>1436.77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628</v>
+        <v>940</v>
       </c>
       <c r="C8" t="n">
-        <v>498</v>
+        <v>657</v>
       </c>
       <c r="D8" t="n">
-        <v>289957</v>
+        <v>350103</v>
       </c>
       <c r="E8" t="n">
-        <v>9598.299999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5480</v>
-      </c>
-      <c r="H8" t="n">
-        <v>180.8</v>
-      </c>
+        <v>11866.43</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>77.90000000000001</v>
+        <v>96.62</v>
       </c>
       <c r="J8" t="n">
-        <v>387607</v>
+        <v>621351</v>
       </c>
       <c r="K8" t="n">
-        <v>12317.8</v>
+        <v>19673.78</v>
       </c>
       <c r="L8" t="n">
-        <v>15804.8</v>
+        <v>20362.01</v>
       </c>
       <c r="M8" t="n">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="N8" t="n">
-        <v>84940</v>
+        <v>255850</v>
       </c>
       <c r="O8" t="n">
-        <v>2316.7</v>
+        <v>7378.42</v>
       </c>
       <c r="P8" t="n">
-        <v>690.8</v>
+        <v>647.0599999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>1950.52</v>
+        <v>1299.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>677</v>
+        <v>1013</v>
       </c>
       <c r="C9" t="n">
-        <v>547</v>
+        <v>654</v>
       </c>
       <c r="D9" t="n">
-        <v>300195</v>
+        <v>360524</v>
       </c>
       <c r="E9" t="n">
-        <v>10063.74</v>
+        <v>12037.62</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>2599.28</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>79.7</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>409119</v>
+        <v>679889</v>
       </c>
       <c r="K9" t="n">
-        <v>13089.64</v>
+        <v>21034.16</v>
       </c>
       <c r="L9" t="n">
-        <v>16395.28</v>
+        <v>21520.86</v>
       </c>
       <c r="M9" t="n">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="N9" t="n">
-        <v>94114</v>
+        <v>298062</v>
       </c>
       <c r="O9" t="n">
-        <v>2599.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>652.83</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1962.86</v>
-      </c>
+        <v>8463.32</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701</v>
+        <v>1091</v>
       </c>
       <c r="C10" t="n">
-        <v>540</v>
+        <v>663</v>
       </c>
       <c r="D10" t="n">
-        <v>310927</v>
+        <v>373498.44</v>
       </c>
       <c r="E10" t="n">
-        <v>10512.49</v>
+        <v>11706.018323</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>84.83</v>
+        <v>98.96326159361639</v>
       </c>
       <c r="J10" t="n">
-        <v>446268</v>
+        <v>766194.98</v>
       </c>
       <c r="K10" t="n">
-        <v>14489.54</v>
+        <v>22565.359359</v>
       </c>
       <c r="L10" t="n">
-        <v>17080.87</v>
+        <v>22801.753899</v>
       </c>
       <c r="M10" t="n">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="N10" t="n">
-        <v>122649</v>
+        <v>364594.67</v>
       </c>
       <c r="O10" t="n">
-        <v>3584.06</v>
-      </c>
-      <c r="P10" t="n">
-        <v>801.38</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1811.8</v>
-      </c>
+        <v>10184.917453</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>765</v>
+        <v>1183</v>
       </c>
       <c r="C11" t="n">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="D11" t="n">
-        <v>322782</v>
+        <v>367013.46</v>
       </c>
       <c r="E11" t="n">
-        <v>10492.69</v>
+        <v>10948.033085</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>89.3</v>
+        <v>99.2011691874786</v>
       </c>
       <c r="J11" t="n">
-        <v>492300</v>
+        <v>869875.25</v>
       </c>
       <c r="K11" t="n">
-        <v>15393.98</v>
+        <v>24012.818869</v>
       </c>
       <c r="L11" t="n">
-        <v>17238.58</v>
+        <v>24206.185336</v>
       </c>
       <c r="M11" t="n">
-        <v>166</v>
+        <v>389</v>
       </c>
       <c r="N11" t="n">
-        <v>158488</v>
+        <v>456499.45</v>
       </c>
       <c r="O11" t="n">
-        <v>4633.72</v>
-      </c>
-      <c r="P11" t="n">
-        <v>677.84</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1682.41</v>
-      </c>
+        <v>12174.2</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>818</v>
+        <v>1287</v>
       </c>
       <c r="C12" t="n">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="D12" t="n">
-        <v>335316</v>
+        <v>337848.11</v>
       </c>
       <c r="E12" t="n">
-        <v>10744.25</v>
+        <v>7771.537759</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>91.79000000000001</v>
+        <v>99.74747539197421</v>
       </c>
       <c r="J12" t="n">
-        <v>533455</v>
+        <v>963460.15</v>
       </c>
       <c r="K12" t="n">
-        <v>16393.74</v>
+        <v>23452.334572</v>
       </c>
       <c r="L12" t="n">
-        <v>17860.18</v>
+        <v>23511.707419</v>
       </c>
       <c r="M12" t="n">
-        <v>188</v>
+        <v>463</v>
       </c>
       <c r="N12" t="n">
-        <v>185957</v>
+        <v>567804.4399999999</v>
       </c>
       <c r="O12" t="n">
-        <v>5329.88</v>
-      </c>
-      <c r="P12" t="n">
-        <v>691.97</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1551.97</v>
-      </c>
+        <v>14607.644845</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>890</v>
+        <v>1407</v>
       </c>
       <c r="C13" t="n">
-        <v>640</v>
+        <v>542</v>
       </c>
       <c r="D13" t="n">
-        <v>344135</v>
+        <v>261554.9</v>
       </c>
       <c r="E13" t="n">
-        <v>11483.14</v>
+        <v>5208.506209</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>94.09999999999999</v>
+        <v>99.8798115990257</v>
       </c>
       <c r="J13" t="n">
-        <v>576894</v>
+        <v>1057063.84</v>
       </c>
       <c r="K13" t="n">
-        <v>18013.01</v>
+        <v>24839.315246</v>
       </c>
       <c r="L13" t="n">
-        <v>19141.87</v>
+        <v>24869.205146</v>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>583</v>
       </c>
       <c r="N13" t="n">
-        <v>219080</v>
+        <v>719533.36</v>
       </c>
       <c r="O13" t="n">
-        <v>6175.52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>673.67</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1436.77</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>940</v>
-      </c>
-      <c r="C14" t="n">
-        <v>657</v>
-      </c>
-      <c r="D14" t="n">
-        <v>350103</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11866.43</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>96.62</v>
-      </c>
-      <c r="J14" t="n">
-        <v>621351</v>
-      </c>
-      <c r="K14" t="n">
-        <v>19673.78</v>
-      </c>
-      <c r="L14" t="n">
-        <v>20362.01</v>
-      </c>
-      <c r="M14" t="n">
-        <v>249</v>
-      </c>
-      <c r="N14" t="n">
-        <v>255850</v>
-      </c>
-      <c r="O14" t="n">
-        <v>7378.42</v>
-      </c>
-      <c r="P14" t="n">
-        <v>647.0599999999999</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1299.16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1013</v>
-      </c>
-      <c r="C15" t="n">
-        <v>654</v>
-      </c>
-      <c r="D15" t="n">
-        <v>360524</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12037.62</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>97.73999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>679889</v>
-      </c>
-      <c r="K15" t="n">
-        <v>21034.16</v>
-      </c>
-      <c r="L15" t="n">
-        <v>21520.86</v>
-      </c>
-      <c r="M15" t="n">
-        <v>286</v>
-      </c>
-      <c r="N15" t="n">
-        <v>298062</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8463.32</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1091</v>
-      </c>
-      <c r="C16" t="n">
-        <v>663</v>
-      </c>
-      <c r="D16" t="n">
-        <v>373498.44</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11706.018323</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>98.96326159361639</v>
-      </c>
-      <c r="J16" t="n">
-        <v>766194.98</v>
-      </c>
-      <c r="K16" t="n">
-        <v>22565.359359</v>
-      </c>
-      <c r="L16" t="n">
-        <v>22801.753899</v>
-      </c>
-      <c r="M16" t="n">
-        <v>331</v>
-      </c>
-      <c r="N16" t="n">
-        <v>364594.67</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10184.917453</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C17" t="n">
-        <v>652</v>
-      </c>
-      <c r="D17" t="n">
-        <v>367013.46</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10948.033085</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>99.2011691874786</v>
-      </c>
-      <c r="J17" t="n">
-        <v>869875.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>24012.818869</v>
-      </c>
-      <c r="L17" t="n">
-        <v>24206.185336</v>
-      </c>
-      <c r="M17" t="n">
-        <v>389</v>
-      </c>
-      <c r="N17" t="n">
-        <v>456499.45</v>
-      </c>
-      <c r="O17" t="n">
-        <v>12174.2</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C18" t="n">
-        <v>644</v>
-      </c>
-      <c r="D18" t="n">
-        <v>337848.11</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7771.537759</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>99.74747539197421</v>
-      </c>
-      <c r="J18" t="n">
-        <v>963460.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23452.334572</v>
-      </c>
-      <c r="L18" t="n">
-        <v>23511.707419</v>
-      </c>
-      <c r="M18" t="n">
-        <v>463</v>
-      </c>
-      <c r="N18" t="n">
-        <v>567804.4399999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>14607.644845</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+        <v>18019.668103</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
